--- a/natmiOut/OldD7/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H2">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I2">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J2">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.3161470491648</v>
+        <v>18.76192366666666</v>
       </c>
       <c r="N2">
-        <v>18.3161470491648</v>
+        <v>56.285771</v>
       </c>
       <c r="O2">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="P2">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="Q2">
-        <v>267.9134499066218</v>
+        <v>284.0614530812119</v>
       </c>
       <c r="R2">
-        <v>267.9134499066218</v>
+        <v>2556.553077730908</v>
       </c>
       <c r="S2">
-        <v>0.04093801042511183</v>
+        <v>0.03947519286147733</v>
       </c>
       <c r="T2">
-        <v>0.04093801042511183</v>
+        <v>0.03947519286147733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H3">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I3">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J3">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.4464677514245</v>
+        <v>38.59812166666666</v>
       </c>
       <c r="N3">
-        <v>38.4464677514245</v>
+        <v>115.794365</v>
       </c>
       <c r="O3">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="P3">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="Q3">
-        <v>562.3631315232045</v>
+        <v>584.3877590397799</v>
       </c>
       <c r="R3">
-        <v>562.3631315232045</v>
+        <v>5259.48983135802</v>
       </c>
       <c r="S3">
-        <v>0.08593083978807166</v>
+        <v>0.08121066495912975</v>
       </c>
       <c r="T3">
-        <v>0.08593083978807166</v>
+        <v>0.08121066495912975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H4">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I4">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J4">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.01573633717561</v>
+        <v>6.691683333333334</v>
       </c>
       <c r="N4">
-        <v>6.01573633717561</v>
+        <v>20.07505</v>
       </c>
       <c r="O4">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="P4">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="Q4">
-        <v>87.99321557613473</v>
+        <v>101.3142002386</v>
       </c>
       <c r="R4">
-        <v>87.99321557613473</v>
+        <v>911.8278021474</v>
       </c>
       <c r="S4">
-        <v>0.01344563767832651</v>
+        <v>0.01407933934943879</v>
       </c>
       <c r="T4">
-        <v>0.01344563767832651</v>
+        <v>0.01407933934943879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H5">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I5">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J5">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>85.1180211475334</v>
+        <v>89.42491666666666</v>
       </c>
       <c r="N5">
-        <v>85.1180211475334</v>
+        <v>268.27475</v>
       </c>
       <c r="O5">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855819</v>
       </c>
       <c r="P5">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855818</v>
       </c>
       <c r="Q5">
-        <v>1245.036012958867</v>
+        <v>1353.921496607</v>
       </c>
       <c r="R5">
-        <v>1245.036012958867</v>
+        <v>12185.293469463</v>
       </c>
       <c r="S5">
-        <v>0.1902453844549967</v>
+        <v>0.1881505273529009</v>
       </c>
       <c r="T5">
-        <v>0.1902453844549967</v>
+        <v>0.1881505273529009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.8858540144953</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H6">
-        <v>18.8858540144953</v>
+        <v>56.822099</v>
       </c>
       <c r="I6">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J6">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.3161470491648</v>
+        <v>18.76192366666666</v>
       </c>
       <c r="N6">
-        <v>18.3161470491648</v>
+        <v>56.285771</v>
       </c>
       <c r="O6">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="P6">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="Q6">
-        <v>345.9160792785553</v>
+        <v>355.3639613392588</v>
       </c>
       <c r="R6">
-        <v>345.9160792785553</v>
+        <v>3198.275652053329</v>
       </c>
       <c r="S6">
-        <v>0.05285705538357631</v>
+        <v>0.04938389477954001</v>
       </c>
       <c r="T6">
-        <v>0.05285705538357631</v>
+        <v>0.04938389477954001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.8858540144953</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H7">
-        <v>18.8858540144953</v>
+        <v>56.822099</v>
       </c>
       <c r="I7">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J7">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.4464677514245</v>
+        <v>38.59812166666666</v>
       </c>
       <c r="N7">
-        <v>38.4464677514245</v>
+        <v>115.794365</v>
       </c>
       <c r="O7">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="P7">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="Q7">
-        <v>726.0943773264045</v>
+        <v>731.0754301857927</v>
       </c>
       <c r="R7">
-        <v>726.0943773264045</v>
+        <v>6579.678871672135</v>
       </c>
       <c r="S7">
-        <v>0.1109494846151386</v>
+        <v>0.1015954234192448</v>
       </c>
       <c r="T7">
-        <v>0.1109494846151386</v>
+        <v>0.1015954234192448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.8858540144953</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H8">
-        <v>18.8858540144953</v>
+        <v>56.822099</v>
       </c>
       <c r="I8">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J8">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.01573633717561</v>
+        <v>6.691683333333334</v>
       </c>
       <c r="N8">
-        <v>6.01573633717561</v>
+        <v>20.07505</v>
       </c>
       <c r="O8">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="P8">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="Q8">
-        <v>113.6123182535932</v>
+        <v>126.7451642811056</v>
       </c>
       <c r="R8">
-        <v>113.6123182535932</v>
+        <v>1140.70647852995</v>
       </c>
       <c r="S8">
-        <v>0.01736031644065573</v>
+        <v>0.0176134063597353</v>
       </c>
       <c r="T8">
-        <v>0.01736031644065573</v>
+        <v>0.0176134063597353</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.8858540144953</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H9">
-        <v>18.8858540144953</v>
+        <v>56.822099</v>
       </c>
       <c r="I9">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J9">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.1180211475334</v>
+        <v>89.42491666666666</v>
       </c>
       <c r="N9">
-        <v>85.1180211475334</v>
+        <v>268.27475</v>
       </c>
       <c r="O9">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855819</v>
       </c>
       <c r="P9">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855818</v>
       </c>
       <c r="Q9">
-        <v>1607.526521395039</v>
+        <v>1693.770489300028</v>
       </c>
       <c r="R9">
-        <v>1607.526521395039</v>
+        <v>15243.93440370025</v>
       </c>
       <c r="S9">
-        <v>0.2456350642883022</v>
+        <v>0.2353783521239747</v>
       </c>
       <c r="T9">
-        <v>0.2456350642883022</v>
+        <v>0.2353783521239746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.42028061199919</v>
+        <v>3.221232</v>
       </c>
       <c r="H10">
-        <v>2.42028061199919</v>
+        <v>9.663696</v>
       </c>
       <c r="I10">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J10">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.3161470491648</v>
+        <v>18.76192366666666</v>
       </c>
       <c r="N10">
-        <v>18.3161470491648</v>
+        <v>56.285771</v>
       </c>
       <c r="O10">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="P10">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="Q10">
-        <v>44.33021558961974</v>
+        <v>60.436508896624</v>
       </c>
       <c r="R10">
-        <v>44.33021558961974</v>
+        <v>543.9285800696159</v>
       </c>
       <c r="S10">
-        <v>0.006773795151336495</v>
+        <v>0.008398685631895818</v>
       </c>
       <c r="T10">
-        <v>0.006773795151336495</v>
+        <v>0.008398685631895818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.42028061199919</v>
+        <v>3.221232</v>
       </c>
       <c r="H11">
-        <v>2.42028061199919</v>
+        <v>9.663696</v>
       </c>
       <c r="I11">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J11">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.4464677514245</v>
+        <v>38.59812166666666</v>
       </c>
       <c r="N11">
-        <v>38.4464677514245</v>
+        <v>115.794365</v>
       </c>
       <c r="O11">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="P11">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="Q11">
-        <v>93.05124049862481</v>
+        <v>124.33350465256</v>
       </c>
       <c r="R11">
-        <v>93.05124049862481</v>
+        <v>1119.00154187304</v>
       </c>
       <c r="S11">
-        <v>0.01421851965599334</v>
+        <v>0.01727826504464157</v>
       </c>
       <c r="T11">
-        <v>0.01421851965599334</v>
+        <v>0.01727826504464157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.42028061199919</v>
+        <v>3.221232</v>
       </c>
       <c r="H12">
-        <v>2.42028061199919</v>
+        <v>9.663696</v>
       </c>
       <c r="I12">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J12">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.01573633717561</v>
+        <v>6.691683333333334</v>
       </c>
       <c r="N12">
-        <v>6.01573633717561</v>
+        <v>20.07505</v>
       </c>
       <c r="O12">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="P12">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="Q12">
-        <v>14.55977002376515</v>
+        <v>21.5554644872</v>
       </c>
       <c r="R12">
-        <v>14.55977002376515</v>
+        <v>193.9991803848</v>
       </c>
       <c r="S12">
-        <v>0.002224778252931587</v>
+        <v>0.002995500123727365</v>
       </c>
       <c r="T12">
-        <v>0.002224778252931587</v>
+        <v>0.002995500123727365</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.42028061199919</v>
+        <v>3.221232</v>
       </c>
       <c r="H13">
-        <v>2.42028061199919</v>
+        <v>9.663696</v>
       </c>
       <c r="I13">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J13">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>85.1180211475334</v>
+        <v>89.42491666666666</v>
       </c>
       <c r="N13">
-        <v>85.1180211475334</v>
+        <v>268.27475</v>
       </c>
       <c r="O13">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855819</v>
       </c>
       <c r="P13">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855818</v>
       </c>
       <c r="Q13">
-        <v>206.0094963151121</v>
+        <v>288.058403164</v>
       </c>
       <c r="R13">
-        <v>206.0094963151121</v>
+        <v>2592.525628476</v>
       </c>
       <c r="S13">
-        <v>0.03147889331707512</v>
+        <v>0.0400306373741499</v>
       </c>
       <c r="T13">
-        <v>0.03147889331707512</v>
+        <v>0.04003063737414989</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.316385583239979</v>
+        <v>9.584029000000001</v>
       </c>
       <c r="H14">
-        <v>8.316385583239979</v>
+        <v>28.752087</v>
       </c>
       <c r="I14">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="J14">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.3161470491648</v>
+        <v>18.76192366666666</v>
       </c>
       <c r="N14">
-        <v>18.3161470491648</v>
+        <v>56.285771</v>
       </c>
       <c r="O14">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="P14">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="Q14">
-        <v>152.3241412601776</v>
+        <v>179.8148205171197</v>
       </c>
       <c r="R14">
-        <v>152.3241412601776</v>
+        <v>1618.333384654077</v>
       </c>
       <c r="S14">
-        <v>0.02327560368872407</v>
+        <v>0.02498834193189837</v>
       </c>
       <c r="T14">
-        <v>0.02327560368872407</v>
+        <v>0.02498834193189837</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.316385583239979</v>
+        <v>9.584029000000001</v>
       </c>
       <c r="H15">
-        <v>8.316385583239979</v>
+        <v>28.752087</v>
       </c>
       <c r="I15">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="J15">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>38.4464677514245</v>
+        <v>38.59812166666666</v>
       </c>
       <c r="N15">
-        <v>38.4464677514245</v>
+        <v>115.794365</v>
       </c>
       <c r="O15">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="P15">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="Q15">
-        <v>319.7356501344475</v>
+        <v>369.9255173988617</v>
       </c>
       <c r="R15">
-        <v>319.7356501344475</v>
+        <v>3329.329656589755</v>
       </c>
       <c r="S15">
-        <v>0.04885660418708378</v>
+        <v>0.05140747181746955</v>
       </c>
       <c r="T15">
-        <v>0.04885660418708378</v>
+        <v>0.05140747181746956</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.316385583239979</v>
+        <v>9.584029000000001</v>
       </c>
       <c r="H16">
-        <v>8.316385583239979</v>
+        <v>28.752087</v>
       </c>
       <c r="I16">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="J16">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.01573633717561</v>
+        <v>6.691683333333334</v>
       </c>
       <c r="N16">
-        <v>6.01573633717561</v>
+        <v>20.07505</v>
       </c>
       <c r="O16">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="P16">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="Q16">
-        <v>50.02918294706012</v>
+        <v>64.13328712548335</v>
       </c>
       <c r="R16">
-        <v>50.02918294706012</v>
+        <v>577.1995841293501</v>
       </c>
       <c r="S16">
-        <v>0.007644615131343403</v>
+        <v>0.008912416136219514</v>
       </c>
       <c r="T16">
-        <v>0.007644615131343403</v>
+        <v>0.008912416136219516</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.316385583239979</v>
+        <v>9.584029000000001</v>
       </c>
       <c r="H17">
-        <v>8.316385583239979</v>
+        <v>28.752087</v>
       </c>
       <c r="I17">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="J17">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>85.1180211475334</v>
+        <v>89.42491666666666</v>
       </c>
       <c r="N17">
-        <v>85.1180211475334</v>
+        <v>268.27475</v>
       </c>
       <c r="O17">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855819</v>
       </c>
       <c r="P17">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855818</v>
       </c>
       <c r="Q17">
-        <v>707.8742839452624</v>
+        <v>857.0509946559167</v>
       </c>
       <c r="R17">
-        <v>707.8742839452624</v>
+        <v>7713.458951903251</v>
       </c>
       <c r="S17">
-        <v>0.1081653975413329</v>
+        <v>0.1191018807345564</v>
       </c>
       <c r="T17">
-        <v>0.1081653975413329</v>
+        <v>0.1191018807345564</v>
       </c>
     </row>
   </sheetData>
